--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="8775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MCD" sheetId="1" r:id="rId1"/>
-    <sheet name="Organigramme" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="MPD" sheetId="4" r:id="rId2"/>
+    <sheet name="Organigramme" sheetId="2" r:id="rId3"/>
+    <sheet name="Planning" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>nom</t>
   </si>
@@ -129,9 +130,6 @@
     <t>1.6 : intégration au site</t>
   </si>
   <si>
-    <t>Lot 2.0 : Mise en place du SGBD</t>
-  </si>
-  <si>
     <t>2.1 : analyse</t>
   </si>
   <si>
@@ -147,44 +145,179 @@
     <t>2.6 : intégration au site</t>
   </si>
   <si>
-    <t>Lot 1.0 : gestion des stocks (admin)</t>
-  </si>
-  <si>
     <t>Lot 1.0 : recherche d’articles (site Web marchand)</t>
   </si>
   <si>
-    <t>Lot 1.0 : informations détaillées article (site Web marchand)</t>
-  </si>
-  <si>
-    <t>Lot 1.0 : sélection article (site Web marchand)</t>
-  </si>
-  <si>
-    <t>Lot 1.0 : la commande (site Web marchand)</t>
-  </si>
-  <si>
-    <t>Lot 1.0 : Nouveauté (site Web marchand)</t>
-  </si>
-  <si>
-    <t>Lot 1.0 : gestion du catalogue (administration)</t>
-  </si>
-  <si>
-    <t>Lot 1.0 : suivi des commandes (administration)</t>
-  </si>
-  <si>
-    <t>Lot 1.0 : Ergonomie (site Web marchand)</t>
-  </si>
-  <si>
     <t>Boutique virtuelle MédiaStore</t>
   </si>
   <si>
-    <t>Lot 1.0 : Module panier (site Web marchand)</t>
+    <t>Intranet</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Lot 2.0 : informations détaillées article (site Web marchand)</t>
+  </si>
+  <si>
+    <t>Lot 3.0 : sélection article (site Web marchand)</t>
+  </si>
+  <si>
+    <t>Lot 4.0 : la commande (site Web marchand)</t>
+  </si>
+  <si>
+    <t>Lot 5.0 : Nouveauté (site Web marchand)</t>
+  </si>
+  <si>
+    <t>Lot 6.0 : Ergonomie (site Web marchand)</t>
+  </si>
+  <si>
+    <t>Lot 7.0 : gestion du catalogue (administration)</t>
+  </si>
+  <si>
+    <t>Lot 8.0 : suivi des commandes (administration)</t>
+  </si>
+  <si>
+    <t>Lot 9.0 : gestion des stocks (administration)</t>
+  </si>
+  <si>
+    <t>Lot 0.0 : Mise en place du SGBD</t>
+  </si>
+  <si>
+    <t>0.1 : analyse</t>
+  </si>
+  <si>
+    <t>0.2 : règles métier</t>
+  </si>
+  <si>
+    <t>0.3 : codage</t>
+  </si>
+  <si>
+    <t>0.5 : tests</t>
+  </si>
+  <si>
+    <t>0.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>3.1 : analyse</t>
+  </si>
+  <si>
+    <t>3.2 : règles métier</t>
+  </si>
+  <si>
+    <t>3.3 : codage</t>
+  </si>
+  <si>
+    <t>3.5 : tests</t>
+  </si>
+  <si>
+    <t>3.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>4.1 : analyse</t>
+  </si>
+  <si>
+    <t>4.2 : règles métier</t>
+  </si>
+  <si>
+    <t>4.3 : codage</t>
+  </si>
+  <si>
+    <t>4.5 : tests</t>
+  </si>
+  <si>
+    <t>4.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>5.1 : analyse</t>
+  </si>
+  <si>
+    <t>5.2 : règles métier</t>
+  </si>
+  <si>
+    <t>5.3 : codage</t>
+  </si>
+  <si>
+    <t>5.5 : tests</t>
+  </si>
+  <si>
+    <t>5.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>6.1 : analyse</t>
+  </si>
+  <si>
+    <t>6.2 : règles métier</t>
+  </si>
+  <si>
+    <t>6.3 : codage</t>
+  </si>
+  <si>
+    <t>6.5 : tests</t>
+  </si>
+  <si>
+    <t>6.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>7.1 : analyse</t>
+  </si>
+  <si>
+    <t>7.2 : règles métier</t>
+  </si>
+  <si>
+    <t>7.3 : codage</t>
+  </si>
+  <si>
+    <t>7.5 : tests</t>
+  </si>
+  <si>
+    <t>7.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>8.1 : analyse</t>
+  </si>
+  <si>
+    <t>8.2 : règles métier</t>
+  </si>
+  <si>
+    <t>8.3 : codage</t>
+  </si>
+  <si>
+    <t>8.5 : tests</t>
+  </si>
+  <si>
+    <t>8.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>9.1 : analyse</t>
+  </si>
+  <si>
+    <t>9.2 : règles métier</t>
+  </si>
+  <si>
+    <t>9.3 : codage</t>
+  </si>
+  <si>
+    <t>9.5 : tests</t>
+  </si>
+  <si>
+    <t>9.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>Avancement</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Fin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +333,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +365,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -309,11 +466,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -324,18 +496,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,10 +1274,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,23 +1299,23 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1103,7 +1323,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1111,7 +1331,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1119,7 +1339,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -1127,232 +1347,214 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>44</v>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>45</v>
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>46</v>
+      <c r="B37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="D46" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>36</v>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1364,14 +1566,436 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="24">
+        <v>42534</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="16">
+        <v>42535</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="25">
+        <v>42536</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="16">
+        <v>42537</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="25">
+        <v>42538</v>
+      </c>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>nom</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Lot 3.0 : sélection article (site Web marchand)</t>
   </si>
   <si>
-    <t>Lot 4.0 : la commande (site Web marchand)</t>
-  </si>
-  <si>
-    <t>Lot 5.0 : Nouveauté (site Web marchand)</t>
-  </si>
-  <si>
     <t>Lot 6.0 : Ergonomie (site Web marchand)</t>
   </si>
   <si>
@@ -311,6 +305,15 @@
   </si>
   <si>
     <t>Fin</t>
+  </si>
+  <si>
+    <t>Lot 5.0 : Nouveautés (site Web marchand)</t>
+  </si>
+  <si>
+    <t>Lot 4.0 : commande (site Web marchand)</t>
+  </si>
+  <si>
+    <t>nom : char</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -544,6 +547,14 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,6 +734,246 @@
         <a:xfrm flipV="1">
           <a:off x="6143625" y="3524250"/>
           <a:ext cx="28575" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit avec flèche 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="2457450"/>
+          <a:ext cx="1619250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400052</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4210052" y="4229100"/>
+          <a:ext cx="9523" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit avec flèche 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4086225" y="5686425"/>
+          <a:ext cx="1485900" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7248525" y="2676525"/>
+          <a:ext cx="0" cy="1085851"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur droit avec flèche 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4191002" y="2562225"/>
+          <a:ext cx="9523" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1040,9 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1162,23 +1411,23 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="2"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K25" s="3" t="s">
@@ -1186,17 +1435,17 @@
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1204,7 +1453,7 @@
       <c r="J29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1212,36 +1461,37 @@
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" s="1" t="s">
@@ -1274,13 +1524,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="J22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1288,9 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1307,7 +1743,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>42</v>
@@ -1315,7 +1751,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1323,7 +1759,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1331,7 +1767,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1339,7 +1775,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -1347,7 +1783,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -1355,7 +1791,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>46</v>
@@ -1363,7 +1799,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -1371,7 +1807,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -1379,7 +1815,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1387,7 +1823,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
@@ -1395,7 +1831,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -1403,7 +1839,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>47</v>
@@ -1411,150 +1847,150 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D46" s="6" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +2007,7 @@
   <dimension ref="B2:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +2019,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -1639,15 +2075,15 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1791,7 +2227,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1816,7 +2252,7 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1841,7 +2277,7 @@
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1914,7 +2350,7 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1939,7 +2375,7 @@
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1964,7 +2400,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>nom</t>
   </si>
@@ -314,6 +314,42 @@
   </si>
   <si>
     <t>nom : char</t>
+  </si>
+  <si>
+    <t>Lot 10.0 : gestion des users (administration)</t>
+  </si>
+  <si>
+    <t>Lot 3.0 : sélection article (site Web marchand) - panier</t>
+  </si>
+  <si>
+    <t>Mickaël</t>
+  </si>
+  <si>
+    <t>JBH</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
   </si>
 </sst>
 </file>
@@ -376,13 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +542,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +557,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -524,37 +589,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,7 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1411,23 +1449,23 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="30"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K25" s="3" t="s">
@@ -1435,17 +1473,17 @@
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1453,7 +1491,7 @@
       <c r="J29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1461,37 +1499,37 @@
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="28"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="28"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="28"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" s="1" t="s">
@@ -1526,10 +1564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="3" max="5" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1726,7 +1768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1735,11 +1779,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -2004,85 +2048,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V17"/>
+  <dimension ref="A2:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="24">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="26">
         <v>42534</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="16">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27">
         <v>42535</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="25">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="20">
         <v>42536</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="16">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="27">
         <v>42537</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="25">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="20">
         <v>42538</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="10"/>
@@ -2102,7 +2146,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -2125,7 +2169,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
@@ -2150,11 +2194,16 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2175,11 +2224,16 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
       <c r="B8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2200,11 +2254,16 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
       <c r="B9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2225,11 +2284,16 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
       <c r="B10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2250,11 +2314,16 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
       <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -2275,11 +2344,16 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
       <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2300,7 +2374,7 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2323,7 +2397,7 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>44</v>
       </c>
@@ -2348,11 +2422,16 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
       <c r="B15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2373,11 +2452,16 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
       <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2398,11 +2482,16 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
       <c r="B17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -2423,6 +2512,36 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="S3:V3"/>

--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="8775" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="MCD" sheetId="1" r:id="rId1"/>
-    <sheet name="MPD" sheetId="4" r:id="rId2"/>
+    <sheet name="MPD" sheetId="5" r:id="rId2"/>
     <sheet name="Organigramme" sheetId="2" r:id="rId3"/>
     <sheet name="Planning" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>nom</t>
   </si>
@@ -304,18 +304,12 @@
     <t>Début</t>
   </si>
   <si>
-    <t>Fin</t>
-  </si>
-  <si>
     <t>Lot 5.0 : Nouveautés (site Web marchand)</t>
   </si>
   <si>
     <t>Lot 4.0 : commande (site Web marchand)</t>
   </si>
   <si>
-    <t>nom : char</t>
-  </si>
-  <si>
     <t>Lot 10.0 : gestion des users (administration)</t>
   </si>
   <si>
@@ -350,6 +344,54 @@
   </si>
   <si>
     <t>p4</t>
+  </si>
+  <si>
+    <t>En Cours</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>Lot 11.0 : documentations (transverse)</t>
+  </si>
+  <si>
+    <t>Lot 0.0 : Mise en place du SGBD (transverse)</t>
+  </si>
+  <si>
+    <t>10.1 : analyse</t>
+  </si>
+  <si>
+    <t>10.2 : règles métier</t>
+  </si>
+  <si>
+    <t>10.3 : codage</t>
+  </si>
+  <si>
+    <t>10.5 : tests</t>
+  </si>
+  <si>
+    <t>10.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>11.1 : analyse</t>
+  </si>
+  <si>
+    <t>11.2 : règles métier</t>
+  </si>
+  <si>
+    <t>11.3 : codage</t>
+  </si>
+  <si>
+    <t>11.5 : tests</t>
+  </si>
+  <si>
+    <t>11.6 : intégration au site</t>
+  </si>
+  <si>
+    <t>En cours</t>
   </si>
 </sst>
 </file>
@@ -379,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +461,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -540,8 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,6 +602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,8 +643,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,239 +860,59 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Connecteur droit avec flèche 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="2457450"/>
-          <a:ext cx="1619250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400052</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4210052" y="4229100"/>
-          <a:ext cx="9523" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>672193</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Connecteur droit avec flèche 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4086225" y="5686425"/>
-          <a:ext cx="1485900" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1034143" y="421822"/>
+          <a:ext cx="5734050" cy="5838825"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7248525" y="2676525"/>
-          <a:ext cx="0" cy="1085851"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381002</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Connecteur droit avec flèche 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4191002" y="2562225"/>
-          <a:ext cx="9523" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1327,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,23 +1329,23 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="15"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K25" s="3" t="s">
@@ -1473,17 +1353,17 @@
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1491,7 +1371,7 @@
       <c r="J29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1499,37 +1379,37 @@
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="13"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="13"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="13"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" s="1" t="s">
@@ -1562,203 +1442,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J35"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="5" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="3"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="J22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1768,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1978,61 +1669,97 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="D46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
       <c r="D47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
       <c r="D48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
       <c r="D49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
       <c r="D50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
       <c r="D51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
       <c r="D57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
       <c r="D58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
       <c r="D59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
       <c r="D60" t="s">
         <v>77</v>
       </c>
@@ -2048,24 +1775,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="23" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -2083,53 +1816,53 @@
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="26">
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D3" s="26">
         <v>42534</v>
       </c>
-      <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="27">
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
         <v>42535</v>
       </c>
-      <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="20">
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="20">
         <v>42536</v>
       </c>
-      <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="27">
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="27">
         <v>42537</v>
       </c>
-      <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="20">
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="20">
         <v>42538</v>
       </c>
-      <c r="T3" s="21"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2145,10 +1878,10 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C5" s="34"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2168,12 +1901,12 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2193,16 +1926,17 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -2223,21 +1957,26 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -2253,21 +1992,26 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2283,16 +2027,17 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>108</v>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2313,21 +2058,26 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2343,21 +2093,26 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -2373,10 +2128,12 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2396,12 +2153,14 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2421,16 +2180,17 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -2451,16 +2211,17 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -2481,16 +2242,17 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -2511,16 +2273,17 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>107</v>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2541,16 +2304,51 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="8775"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="8775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MCD" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
   <si>
     <t>nom</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>Avancement</t>
-  </si>
-  <si>
-    <t>Début</t>
   </si>
   <si>
     <t>Lot 5.0 : Nouveautés (site Web marchand)</t>
@@ -604,6 +601,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,14 +648,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1470,11 +1467,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1625,7 +1622,7 @@
         <v>51</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1670,15 +1667,15 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
         <v>68</v>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
         <v>69</v>
@@ -1694,7 +1691,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
@@ -1710,7 +1707,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
         <v>72</v>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>48</v>
@@ -1726,7 +1723,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
         <v>74</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
         <v>76</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
         <v>77</v>
@@ -1780,8 +1777,8 @@
   </sheetPr>
   <dimension ref="A2:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,76 +1789,76 @@
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="5.5703125" customWidth="1"/>
+    <col min="8" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D3" s="26">
+      <c r="D3" s="34">
         <v>42534</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35">
         <v>42535</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="20">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="28">
         <v>42536</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="27">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="35">
         <v>42537</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="20">
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="28">
         <v>42538</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="C4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1881,7 +1878,7 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1904,7 +1901,7 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="10"/>
@@ -1930,21 +1927,21 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1961,25 +1958,21 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1996,21 +1989,19 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
-        <v>109</v>
+      <c r="C9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2031,13 +2022,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2062,25 +2053,23 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>94</v>
       </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2097,21 +2086,19 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>109</v>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2133,7 +2120,7 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2158,7 +2145,7 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="10"/>
@@ -2184,12 +2171,12 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="10"/>
@@ -2215,12 +2202,12 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="10"/>
@@ -2246,12 +2233,12 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="10"/>
@@ -2277,13 +2264,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2308,23 +2295,21 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>

--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t>nom</t>
   </si>
@@ -389,13 +389,25 @@
   </si>
   <si>
     <t>En cours</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +429,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -603,12 +629,37 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,6 +699,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,16 +719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -684,8 +737,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="2457450"/>
-          <a:ext cx="1619250" cy="0"/>
+          <a:off x="1600200" y="2476500"/>
+          <a:ext cx="1247775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -714,13 +767,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>495302</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -730,9 +783,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3486151" y="3267075"/>
-          <a:ext cx="38099" cy="2219325"/>
+        <a:xfrm>
+          <a:off x="3476625" y="3467100"/>
+          <a:ext cx="9527" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -808,15 +861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -824,9 +877,56 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6143625" y="3524250"/>
-          <a:ext cx="28575" cy="1000125"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6124575" y="3581400"/>
+          <a:ext cx="19050" cy="942977"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3495675" y="7658100"/>
+          <a:ext cx="9525" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -859,22 +959,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>672193</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>164647</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>343904</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="3" name="Image 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -885,29 +985,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1034143" y="421822"/>
-          <a:ext cx="5734050" cy="5838825"/>
+          <a:off x="761999" y="408214"/>
+          <a:ext cx="7201905" cy="7030431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1202,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:K39"/>
+  <dimension ref="C9:K53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1474,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="32" t="s">
         <v>29</v>
       </c>
       <c r="K32" s="11"/>
@@ -1430,6 +1519,52 @@
       <c r="G39" s="2" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1442,7 +1577,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,11 +1602,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1778,7 +1913,7 @@
   <dimension ref="A2:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,67 +1926,75 @@
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="33"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D3" s="34">
+      <c r="D3" s="43">
         <v>42534</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44">
         <v>42535</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="28">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="37">
         <v>42536</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="35">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="44">
         <v>42537</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="28">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="37">
         <v>42538</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="9"/>
@@ -1878,7 +2021,9 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1901,7 +2046,8 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="48"/>
+      <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="10"/>
@@ -1926,13 +2072,13 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="15"/>
@@ -1942,8 +2088,10 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -1957,13 +2105,13 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="15"/>
@@ -1973,8 +2121,10 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1988,26 +2138,26 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2021,13 +2171,13 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="10"/>
@@ -2052,13 +2202,13 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="16"/>
@@ -2067,11 +2217,11 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2085,26 +2235,26 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2118,9 +2268,9 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2143,9 +2293,9 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="10"/>
@@ -2170,13 +2320,13 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="10"/>
@@ -2201,24 +2351,26 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2232,24 +2384,26 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2263,24 +2417,26 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2294,24 +2450,26 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>

--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
   <si>
     <t>nom</t>
   </si>
@@ -660,6 +660,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,8 +701,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1602,11 +1602,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1913,7 +1913,7 @@
   <dimension ref="A2:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,67 +1928,69 @@
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="5.5703125" customWidth="1"/>
+    <col min="13" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D3" s="43">
+      <c r="D3" s="45">
         <v>42534</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46">
         <v>42535</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="37">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="39">
         <v>42536</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="44">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="46">
         <v>42537</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="37">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="39">
         <v>42538</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="39"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="34" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -2021,7 +2023,7 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="30"/>
       <c r="C5" s="20"/>
       <c r="D5" s="10"/>
@@ -2046,7 +2048,7 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="35"/>
       <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
@@ -2072,7 +2074,7 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="34" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2105,7 +2107,7 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="34" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -2138,7 +2140,7 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -2171,7 +2173,7 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -2202,7 +2204,7 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2235,7 +2237,7 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2268,7 +2270,7 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="28"/>
       <c r="C13" s="20"/>
       <c r="D13" s="10"/>
@@ -2293,7 +2295,7 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="28"/>
       <c r="C14" s="21" t="s">
         <v>44</v>
@@ -2320,7 +2322,7 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="34" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -2337,10 +2339,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2351,7 +2355,7 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -2384,7 +2388,7 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2417,7 +2421,7 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2450,7 +2454,7 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="34" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="29" t="s">

--- a/Livrables/MCD et MPD mediastore.xlsx
+++ b/Livrables/MCD et MPD mediastore.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>nom</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>TE</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -700,6 +703,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,20 +965,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>343904</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9145</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>223158</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPr id="2" name="Image 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -991,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="761999" y="408214"/>
-          <a:ext cx="7201905" cy="7030431"/>
+          <a:off x="775608" y="598719"/>
+          <a:ext cx="10877550" cy="10876189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -1576,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -1913,7 +1919,7 @@
   <dimension ref="A2:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,8 +1933,8 @@
     <col min="8" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5703125" customWidth="1"/>
+    <col min="12" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="23" width="5.5703125" customWidth="1"/>
   </cols>
@@ -2092,7 +2098,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -2125,7 +2131,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -2157,10 +2163,10 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2222,7 +2228,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -2325,10 +2331,10 @@
       <c r="A15" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="10"/>
@@ -2339,12 +2345,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27" t="s">
         <v>123</v>
       </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2368,13 +2374,11 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2391,24 +2395,24 @@
       <c r="A17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -2427,7 +2431,7 @@
       <c r="B18" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="49" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="27"/>
@@ -2438,10 +2442,10 @@
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2471,10 +2475,10 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
